--- a/画面設計/【画面設計】07_ID入力画面.xlsx
+++ b/画面設計/【画面設計】07_ID入力画面.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>ログインしたいユーザのID（メールアドレス）（06_ユーザ管理）を入力して、パスワード再設定画面（08_質問回答画面）へ遷移すること。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -449,7 +452,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2130,7 +2133,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -2740,7 +2743,9 @@
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="34"/>
+      <c r="B21" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2848,7 +2853,7 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2878,13 +2883,13 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -3024,7 +3029,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3054,10 +3059,10 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="6"/>
@@ -3254,14 +3259,14 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -3286,14 +3291,14 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -3318,30 +3323,30 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J41" s="37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K41" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -3418,14 +3423,14 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="24"/>
       <c r="B44" s="55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
@@ -3450,30 +3455,30 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="56"/>
       <c r="B45" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="56"/>
       <c r="G45" s="57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45" s="57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I45" s="57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J45" s="57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K45" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L45" s="24"/>
       <c r="M45" s="24"/>
@@ -3634,30 +3639,30 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="56"/>
       <c r="B51" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="56"/>
       <c r="G51" s="57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51" s="57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I51" s="57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J51" s="57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K51" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
@@ -3734,14 +3739,14 @@
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="24"/>
       <c r="B54" s="55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
@@ -3766,30 +3771,30 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="56"/>
       <c r="B55" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="56"/>
       <c r="G55" s="57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55" s="57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I55" s="57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J55" s="57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K55" s="57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L55" s="24"/>
       <c r="M55" s="24"/>
@@ -29721,7 +29726,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="70"/>
       <c r="B4" s="70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
@@ -29749,10 +29754,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="70"/>
